--- a/biology/Botanique/Pennisetum_mezianum/Pennisetum_mezianum.xlsx
+++ b/biology/Botanique/Pennisetum_mezianum/Pennisetum_mezianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pennisetum mezianum est une espèce de plantes de la famille des Poaceae (Graminées,) originaire de l'Afrique tropicale. Elle peut être l'espèce dominante dans les formations herbeuses, notamment en Afrique de l'est.
 </t>
